--- a/medicine/Psychotrope/G._Schneider_&_Sohn/G._Schneider_&_Sohn.xlsx
+++ b/medicine/Psychotrope/G._Schneider_&_Sohn/G._Schneider_&_Sohn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G._Schneider_%26_Sohn</t>
+          <t>G._Schneider_&amp;_Sohn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 G. Schneider &amp; Sohn GmbH est une brasserie à Kelheim et dont le siège social est à Munich, dans le Land de Bavière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G._Schneider_%26_Sohn</t>
+          <t>G._Schneider_&amp;_Sohn</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fondateur Georg Schneider est le premier bourgeois à recevoir le privilège de pouvoir brasser de la bière de froment du roi Louis II de Bavière. La brasserie d'origine se situe dans la vieille ville de Munich au Tal 7.
-L'entreprise est dirigée par un descendant masculin de la famille Schneider du prénom Georg depuis sa création en 1872 ; Georg VI depuis 2000[3]. En 1946, la production est délocalisée de Munich à Kelheim après la destruction des installations de production par les bombardements alliés en 1944[3]. Le siège de l'entreprise est toujours à Munich.
+L'entreprise est dirigée par un descendant masculin de la famille Schneider du prénom Georg depuis sa création en 1872 ; Georg VI depuis 2000. En 1946, la production est délocalisée de Munich à Kelheim après la destruction des installations de production par les bombardements alliés en 1944. Le siège de l'entreprise est toujours à Munich.
 La Weisse Brauhaus zu Kelheim, le site de production actuel, est la plus ancienne brasserie de Weizenbier de Bavière. Elle est fondée en 1607 par le duc Maximilien Ier sous le nom de Weisses Hofbräuhaus et fait partie de l'entreprise depuis 1928.
 Le centre de service et de logistique est situé à Saal an der Donau.
-G. Schneider &amp; Sohn est un membre fondateur de Die Freien Brauer[4].
+G. Schneider &amp; Sohn est un membre fondateur de Die Freien Brauer.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G._Schneider_%26_Sohn</t>
+          <t>G._Schneider_&amp;_Sohn</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le produit de base est la TAP 7 Mein Original, anciennement Schneider Weisse Original, qui est brassée selon la recette originale de 1872. Avec le changement de nom de la gamme en 2009, d'autres produits voient le jour, il s'agit d'attirer l'attention sur le fait que la brasserie fabrique également les produits TAP 1 à TAP 6.
 Au fil du temps, l'entreprise élargit sa gamme et, après avoir renommé les bières, commercialise les produits suivants :
